--- a/data/2019/Meta_Data/Master_Coral_Sheet.xlsx
+++ b/data/2019/Meta_Data/Master_Coral_Sheet.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinwong/MyProjects/Rim-Deep-Porites/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinwong/MyProjects/Rim-Deep-Porites/data/2019/Meta_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DA7048D-E56C-9D44-ADDD-EA6B7B3971E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC8DC47-4537-E443-90D5-DC63085A4DCD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{13EF679F-35ED-7143-88C9-75B9AB5128B1}"/>
+    <workbookView xWindow="5160" yWindow="1100" windowWidth="28040" windowHeight="17440" xr2:uid="{13EF679F-35ED-7143-88C9-75B9AB5128B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +30,392 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="127">
+  <si>
+    <t>Tag.Number</t>
+  </si>
+  <si>
+    <t>Coral.ID</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Transplant.site</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>Upper-Mesophotic</t>
+  </si>
+  <si>
+    <t>D14B</t>
+  </si>
+  <si>
+    <t>R4B</t>
+  </si>
+  <si>
+    <t>D16C</t>
+  </si>
+  <si>
+    <t>D13B</t>
+  </si>
+  <si>
+    <t>R9B</t>
+  </si>
+  <si>
+    <t>D8C</t>
+  </si>
+  <si>
+    <t>R14B</t>
+  </si>
+  <si>
+    <t>R17C</t>
+  </si>
+  <si>
+    <t>R3B</t>
+  </si>
+  <si>
+    <t>R13B</t>
+  </si>
+  <si>
+    <t>D19C</t>
+  </si>
+  <si>
+    <t>R10B</t>
+  </si>
+  <si>
+    <t>D17B</t>
+  </si>
+  <si>
+    <t>D15B</t>
+  </si>
+  <si>
+    <t>D4C</t>
+  </si>
+  <si>
+    <t>D5B</t>
+  </si>
+  <si>
+    <t>R15B</t>
+  </si>
+  <si>
+    <t>R18C</t>
+  </si>
+  <si>
+    <t>R7C</t>
+  </si>
+  <si>
+    <t>R2B</t>
+  </si>
+  <si>
+    <t>D12B</t>
+  </si>
+  <si>
+    <t>D10B</t>
+  </si>
+  <si>
+    <t>R8B</t>
+  </si>
+  <si>
+    <t>R19C</t>
+  </si>
+  <si>
+    <t>R20B</t>
+  </si>
+  <si>
+    <t>R11C</t>
+  </si>
+  <si>
+    <t>R6B</t>
+  </si>
+  <si>
+    <t>R5B</t>
+  </si>
+  <si>
+    <t>D2C</t>
+  </si>
+  <si>
+    <t>D11C</t>
+  </si>
+  <si>
+    <t>D6C</t>
+  </si>
+  <si>
+    <t>D18C</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>D20B</t>
+  </si>
+  <si>
+    <t>D1C</t>
+  </si>
+  <si>
+    <t>D9B</t>
+  </si>
+  <si>
+    <t>R12C</t>
+  </si>
+  <si>
+    <t>R16C</t>
+  </si>
+  <si>
+    <t>D7C</t>
+  </si>
+  <si>
+    <t>D3B</t>
+  </si>
+  <si>
+    <t>R4C</t>
+  </si>
+  <si>
+    <t>D14C</t>
+  </si>
+  <si>
+    <t>D13C</t>
+  </si>
+  <si>
+    <t>R14C</t>
+  </si>
+  <si>
+    <t>D8B</t>
+  </si>
+  <si>
+    <t>R10C</t>
+  </si>
+  <si>
+    <t>D19B</t>
+  </si>
+  <si>
+    <t>D16B</t>
+  </si>
+  <si>
+    <t>R9C</t>
+  </si>
+  <si>
+    <t>R13C</t>
+  </si>
+  <si>
+    <t>D4B</t>
+  </si>
+  <si>
+    <t>R3C</t>
+  </si>
+  <si>
+    <t>R17B</t>
+  </si>
+  <si>
+    <t>D15C</t>
+  </si>
+  <si>
+    <t>D17C</t>
+  </si>
+  <si>
+    <t>R7B</t>
+  </si>
+  <si>
+    <t>R2C</t>
+  </si>
+  <si>
+    <t>D12C</t>
+  </si>
+  <si>
+    <t>D10C</t>
+  </si>
+  <si>
+    <t>R6C</t>
+  </si>
+  <si>
+    <t>D11B</t>
+  </si>
+  <si>
+    <t>D18B</t>
+  </si>
+  <si>
+    <t>D3C</t>
+  </si>
+  <si>
+    <t>D9C</t>
+  </si>
+  <si>
+    <t>R16B</t>
+  </si>
+  <si>
+    <t>R5C</t>
+  </si>
+  <si>
+    <t>R11B</t>
+  </si>
+  <si>
+    <t>R1B</t>
+  </si>
+  <si>
+    <t>D2B</t>
+  </si>
+  <si>
+    <t>R20C</t>
+  </si>
+  <si>
+    <t>D1B</t>
+  </si>
+  <si>
+    <t>D7B</t>
+  </si>
+  <si>
+    <t>R12B</t>
+  </si>
+  <si>
+    <t>R18B</t>
+  </si>
+  <si>
+    <t>R19B</t>
+  </si>
+  <si>
+    <t>R8C</t>
+  </si>
+  <si>
+    <t>Frag.ID.</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>R1?</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>D20?</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -41,12 +427,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -61,8 +453,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,12 +776,1407 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A73145-1B78-1042-824A-C6720927D6DF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>701</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>702</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>703</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>704</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>705</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>706</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>707</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>708</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>709</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>710</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>711</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>712</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>713</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>714</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>715</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>716</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>717</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>718</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>719</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>720</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>721</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>722</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>723</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>724</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>725</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>726</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>727</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>728</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>729</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>730</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>731</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>732</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>733</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>734</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>735</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>736</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>737</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>738</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>739</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>740</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>741</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>742</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>743</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>744</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>745</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>746</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>747</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>748</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>749</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>750</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>751</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>752</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>753</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>754</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>755</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>756</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>757</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>758</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>759</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>760</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>761</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>762</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>763</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>764</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>765</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>766</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>767</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>768</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>769</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>770</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>771</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>772</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>773</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>774</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>775</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>776</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>777</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>778</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>779</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>780</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>